--- a/biology/Botanique/Cattleya_tigrina/Cattleya_tigrina.xlsx
+++ b/biology/Botanique/Cattleya_tigrina/Cattleya_tigrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cattleya tigrina est une espèce d'orchidées originaire du Brésil, de Rio de Janeiro au Rio Grande do Sul.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce forme des pseudobulbes cylindriques portant à leurs sommet 2 (rarement 3) feuilles charnues et coriaces. Ensuite la hampes florale sort entre ces mêmes feuilles et  produit de trois à dix fleurs parfumées de 7 à 11 cm en milieux d'été[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce forme des pseudobulbes cylindriques portant à leurs sommet 2 (rarement 3) feuilles charnues et coriaces. Ensuite la hampes florale sort entre ces mêmes feuilles et  produit de trois à dix fleurs parfumées de 7 à 11 cm en milieux d'été.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. tigrina pousse dans la forêt du sud du Brésil, à des altitudes de 0 à 100 mètres[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. tigrina pousse dans la forêt du sud du Brésil, à des altitudes de 0 à 100 mètres.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cattleya guttata subvar. immaculata Rchb.f. (1886)
 Cattleya guttata var. leopardina L.Linden &amp; Rodigas (1885)
@@ -623,7 +641,9 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cattleya tigrina alba.</t>
         </is>
@@ -653,7 +673,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cattleya × elegans - formule d'hybride : Cattleya purpurata (Lindl. &amp; Paxton) Van den Berg (2008) × Cattleya tigrina A.Rich. (1848).</t>
         </is>
